--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Definition" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Nodes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Connections" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Object__to_from_node" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Object__node_node" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Variable_Eff" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Time_series_storage" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Demand" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Energy_prices" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Model_components" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Model_relations" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Model" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +519,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1424,18 +1424,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1451,14 +1453,12 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1468,18 +1468,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1489,26 +1497,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1529,7 +1529,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1778,16 @@
           <t>value</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vom_cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1808,6 +1818,10 @@
       <c r="F2" t="n">
         <v>304</v>
       </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1838,6 +1852,8 @@
       <c r="F3" t="n">
         <v>52</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1862,6 +1878,10 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1886,6 +1906,8 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1910,6 +1932,8 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1934,6 +1958,8 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1964,6 +1990,8 @@
       <c r="F8" t="n">
         <v>100</v>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1988,6 +2016,8 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2018,6 +2048,8 @@
       <c r="F10" t="n">
         <v>52</v>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2042,6 +2074,8 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2072,6 +2106,8 @@
       <c r="F12" t="n">
         <v>100</v>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2096,6 +2132,8 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2126,6 +2164,8 @@
       <c r="F14" t="n">
         <v>100</v>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2156,6 +2196,8 @@
       <c r="F15" t="n">
         <v>1000</v>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2186,6 +2228,10 @@
       <c r="F16" t="n">
         <v>1000</v>
       </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2216,6 +2262,8 @@
       <c r="F17" t="n">
         <v>1000</v>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2246,6 +2294,8 @@
       <c r="F18" t="n">
         <v>1000</v>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2270,6 +2320,8 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2300,6 +2352,10 @@
       <c r="F20" t="n">
         <v>1000</v>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2330,6 +2386,8 @@
       <c r="F21" t="n">
         <v>1000</v>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2354,6 +2412,8 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2378,6 +2438,8 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2408,6 +2470,8 @@
       <c r="F24" t="n">
         <v>1000</v>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2438,6 +2502,8 @@
       <c r="F25" t="n">
         <v>1000</v>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2462,6 +2528,8 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2492,6 +2560,8 @@
       <c r="F27" t="n">
         <v>1000</v>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2522,6 +2592,8 @@
       <c r="F28" t="n">
         <v>1000</v>
       </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2975,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2996,7 +3068,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3102,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1.428571428571429</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0.3</v>
@@ -3092,20 +3164,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -519,7 +519,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1359,18 +1359,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1414,7 +1416,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1427,9 +1429,15 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" t="n">
         <v>100000</v>
       </c>
@@ -1437,7 +1445,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1447,7 +1455,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1458,7 +1466,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1471,23 +1479,15 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100000</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1497,13 +1497,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1529,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1539,20 +1547,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1565,15 +1571,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>100000</v>
       </c>
@@ -1581,7 +1581,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,21 +1778,11 @@
           <t>value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fom_cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>vom_cost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1818,10 +1808,6 @@
       <c r="F2" t="n">
         <v>304</v>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1852,13 +1838,11 @@
       <c r="F3" t="n">
         <v>52</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1873,13 +1857,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>vom_cost</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +1887,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1927,13 +1911,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1948,23 +1930,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Electrolyzer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1979,19 +1959,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2006,23 +1978,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>CO2_Vaporizer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2037,19 +2013,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>52</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2064,23 +2032,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>Destilation_Tower</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2095,19 +2067,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2127,18 +2091,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2153,56 +2121,46 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>connection_capacity</t>
+          <t>unit_capacity</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2217,7 +2175,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2228,15 +2186,11 @@
       <c r="F16" t="n">
         <v>1000</v>
       </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2262,13 +2216,11 @@
       <c r="F17" t="n">
         <v>1000</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2283,7 +2235,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2294,13 +2246,11 @@
       <c r="F18" t="n">
         <v>1000</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2310,23 +2260,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2341,21 +2295,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2375,19 +2319,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>connection_capacity</t>
+          <t>vom_cost</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2407,13 +2349,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2428,18 +2374,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2454,24 +2404,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2491,19 +2433,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2523,13 +2457,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2544,12 +2482,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2560,8 +2498,6 @@
       <c r="F27" t="n">
         <v>1000</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2576,24 +2512,76 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>pipeline_District_Heating</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>District_Heating</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>connection_capacity</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F30" t="n">
         <v>1000</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -10,15 +10,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -719,6 +720,903 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DateTime DK1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Power_Wholesale_In</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_Wholesale_Out</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>District_Heating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>relationship class</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>District_Heating</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>parameter name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>connection_flow_cost</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>connection_flow_cost</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>connection_flow_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-01-01T00:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-28.32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-01-01T01:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-10.07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-01-01T02:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-01-01T03:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-01-01T04:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-7.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-01-01T05:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019-01-01T06:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-17.25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-01-01T07:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-15.07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-01-01T08:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-01-01T09:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019-01-01T10:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019-01-01T11:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019-01-01T12:00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2019-01-01T13:00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019-01-01T14:00:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2019-01-01T15:00:00</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2019-01-01T16:00:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2019-01-01T17:00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2019-01-01T18:00:00</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2019-01-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2019-01-01T20:00:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-6.98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019-01-01T21:00:00</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-16.01</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2019-01-01T22:00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2019-01-01T23:00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-28.93</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019-01-02T00:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-33.57</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019-01-02T01:00:00</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-45.919998</v>
+      </c>
+      <c r="C31" t="n">
+        <v>45.919998</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-01-02T02:00:00</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-48.290001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>48.290001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-01-02T03:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-33.599998</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.599998</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-01-02T04:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-33.540001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.540001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-01-02T05:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-17.790001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>17.790001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2019-01-02T06:00:00</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2019-01-02T07:00:00</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-37.43</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019-01-02T08:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>48.060001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-48.060001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019-01-02T09:00:00</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>50.740002</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-50.740002</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2019-01-02T10:00:00</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>48.110001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-48.110001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2019-01-02T11:00:00</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-48.66</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019-01-02T12:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>49.939999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-49.939999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-01-02T13:00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>47.259998</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-47.259998</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-01-02T14:00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>49.639999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-49.639999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-01-02T15:00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>53.669998</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-53.669998</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-01-02T16:00:00</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>56.009998</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-56.009998</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-01-02T17:00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>56.950001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-56.950001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-01-02T18:00:00</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>55.389999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-55.389999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-01-02T19:00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>54.900002</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-54.900002</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019-01-02T20:00:00</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>53.860001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-53.860001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019-01-02T21:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>52.709999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-52.709999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2019-01-02T22:00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-52.09</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2019-01-02T23:00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>50.759998</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-50.759998</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -852,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1739,7 +2637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,21 +2666,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>parameter_name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1799,14 +2687,6 @@
         <is>
           <t>Power_Kasso</t>
         </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -1830,19 +2710,11 @@
           <t>Power_Kasso</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1857,16 +2729,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>vom_cost</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>Hydrogen_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1887,16 +2751,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>Water</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1911,11 +2773,9 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1930,21 +2790,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>CO2_Vaporizer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>Carbon_Dioxide</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1959,11 +2817,9 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1978,27 +2834,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Destilation_Tower</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
+          <t>Raw_Methanol</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2013,11 +2861,9 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2032,27 +2878,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>52</v>
+          <t>Hydrogen_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2067,11 +2905,9 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2091,22 +2927,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2121,46 +2949,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>unit_capacity</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
+          <t>Power_Wholesale</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2175,22 +2993,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1000</v>
+          <t>Power_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2207,20 +3017,12 @@
         <is>
           <t>Power_Kasso</t>
         </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2235,22 +3037,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1000</v>
+          <t>Power_Wholesale</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2260,27 +3054,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1000</v>
+          <t>Hydrogen_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2295,11 +3081,9 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2319,16 +3103,8 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>vom_cost</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2349,16 +3125,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1000</v>
+          <t>Hydrogen_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2374,21 +3142,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1000</v>
+          <t>E-Methanol_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2404,16 +3164,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2433,11 +3191,9 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2457,16 +3213,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1000</v>
+          <t>E-Methanol_Kasso</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2482,21 +3230,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1000</v>
+          <t>Waste_Heat</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2512,75 +3252,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>District_Heating</t>
         </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2589,6 +3267,873 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>relationship_class_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>object_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>object_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>parameter_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vom_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Solar_Plant_Kasso</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CO2_Vaporizer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CO2_Vaporizer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Destilation_Tower</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Destilation_Tower</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>52</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pipeline_storage_hydrogen</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pipeline_storage_hydrogen</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>pipeline_storage_hydrogen</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>pipeline_storage_hydrogen</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>connection__to_node</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>District_Heating</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3029,7 +4574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3158,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3229,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4072,901 +5617,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime DK1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Power_Wholesale_In</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Power_Wholesale_Out</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>District_Heating</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>relationship class</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>power_line_Wholesale_Kasso</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>power_line_Wholesale_Kasso</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>node</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Power_Wholesale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Power_Wholesale</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>District_Heating</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>parameter name</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>connection_flow_cost</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>connection_flow_cost</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>connection_flow_cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019-01-01T00:00:00</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>28.32</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019-01-01T01:00:00</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-10.07</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-01-01T02:00:00</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-01-01T03:00:00</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-01-01T04:00:00</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-7.41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019-01-01T05:00:00</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019-01-01T06:00:00</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019-01-01T07:00:00</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.07</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-01-01T08:00:00</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-4.93</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019-01-01T09:00:00</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-6.33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019-01-01T10:00:00</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-4.93</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019-01-01T11:00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2019-01-01T12:00:00</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019-01-01T13:00:00</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2019-01-01T14:00:00</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2019-01-01T15:00:00</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2019-01-01T16:00:00</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2019-01-01T17:00:00</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-9.06</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2019-01-01T18:00:00</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2019-01-01T19:00:00</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-4.97</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2019-01-01T20:00:00</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-6.98</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2019-01-01T21:00:00</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-16.01</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2019-01-01T22:00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-4.87</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2019-01-01T23:00:00</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-28.93</v>
-      </c>
-      <c r="C29" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2019-01-02T00:00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-33.57</v>
-      </c>
-      <c r="C30" t="n">
-        <v>33.57</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2019-01-02T01:00:00</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-45.919998</v>
-      </c>
-      <c r="C31" t="n">
-        <v>45.919998</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2019-01-02T02:00:00</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-48.290001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>48.290001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2019-01-02T03:00:00</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-33.599998</v>
-      </c>
-      <c r="C33" t="n">
-        <v>33.599998</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019-01-02T04:00:00</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-33.540001</v>
-      </c>
-      <c r="C34" t="n">
-        <v>33.540001</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2019-01-02T05:00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-17.790001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>17.790001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2019-01-02T06:00:00</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2019-01-02T07:00:00</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>37.43</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-37.43</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2019-01-02T08:00:00</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>48.060001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-48.060001</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2019-01-02T09:00:00</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>50.740002</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-50.740002</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2019-01-02T10:00:00</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>48.110001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-48.110001</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2019-01-02T11:00:00</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-48.66</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2019-01-02T12:00:00</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>49.939999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-49.939999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2019-01-02T13:00:00</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>47.259998</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-47.259998</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2019-01-02T14:00:00</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>49.639999</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-49.639999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2019-01-02T15:00:00</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>53.669998</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-53.669998</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2019-01-02T16:00:00</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>56.009998</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-56.009998</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2019-01-02T17:00:00</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>56.950001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-56.950001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2019-01-02T18:00:00</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>55.389999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-55.389999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2019-01-02T19:00:00</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>54.900002</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-54.900002</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2019-01-02T20:00:00</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>53.860001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-53.860001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2019-01-02T21:00:00</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>52.709999</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-52.709999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2019-01-02T22:00:00</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>52.09</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-52.09</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2019-01-02T23:00:00</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>50.759998</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-50.759998</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -3272,7 +3272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,16 +3311,6 @@
           <t>value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fom_cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>vom_cost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3351,10 +3341,6 @@
       <c r="F2" t="n">
         <v>304</v>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3385,13 +3371,11 @@
       <c r="F3" t="n">
         <v>52</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3406,20 +3390,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>vom_cost</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3429,18 +3415,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>CO2_Vaporizer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Vaporized_Carbon_Dioxide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3455,23 +3445,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>Destilation_Tower</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3481,18 +3475,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>Raw_Methanol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>unit_capacity</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3507,12 +3505,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3523,182 +3521,186 @@
       <c r="F8" t="n">
         <v>100</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>Power_Wholesale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>connection_capacity</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>connection_capacity</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>vom_cost</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>connection_capacity</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3713,12 +3715,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3729,8 +3731,6 @@
       <c r="F15" t="n">
         <v>1000</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3761,10 +3761,6 @@
       <c r="F16" t="n">
         <v>1000</v>
       </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3779,12 +3775,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3795,13 +3791,11 @@
       <c r="F17" t="n">
         <v>1000</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3811,12 +3805,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3827,13 +3821,11 @@
       <c r="F18" t="n">
         <v>1000</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3843,290 +3835,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>pipeline_storage_hydrogen</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+          <t>District_Heating</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>connection_capacity</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F19" t="n">
         <v>1000</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>pipeline_storage_hydrogen</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>pipeline_storage_hydrogen</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>pipeline_storage_e-methanol</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>pipeline_storage_e-methanol</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>pipeline_storage_e-methanol</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>pipeline_storage_e-methanol</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>District_Heating</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -3272,7 +3272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3375,7 +3375,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>unit__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3385,21 +3385,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>CO2_Vaporizer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>vom_cost</t>
+          <t>unit_capacity</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Destilation_Tower</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3495,37 +3495,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>connection_capacity</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3555,7 +3555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3660,16 +3660,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>vom_cost</t>
+          <t>connection_capacity</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3735,7 +3735,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3765,7 +3765,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3789,66 +3789,6 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>connection__from_node</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Waste_Heat</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>connection__to_node</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>pipeline_District_Heating</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>District_Heating</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>connection_capacity</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -851,7 +851,7 @@
         <v>-28.32</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -867,7 +867,7 @@
         <v>-10.07</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -883,7 +883,7 @@
         <v>4.08</v>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>9.91</v>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -915,7 +915,7 @@
         <v>7.41</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -931,7 +931,7 @@
         <v>12.55</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -947,7 +947,7 @@
         <v>17.25</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -963,7 +963,7 @@
         <v>15.07</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -979,7 +979,7 @@
         <v>4.93</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -995,7 +995,7 @@
         <v>6.33</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>4.93</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1027,7 +1027,7 @@
         <v>-0.45</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1043,7 +1043,7 @@
         <v>-0.12</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1059,7 +1059,7 @@
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1075,7 +1075,7 @@
         <v>-0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1091,7 +1091,7 @@
         <v>0.03</v>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1107,7 +1107,7 @@
         <v>-1.97</v>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1123,7 +1123,7 @@
         <v>-9.06</v>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1139,7 +1139,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1155,7 +1155,7 @@
         <v>4.97</v>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1171,7 +1171,7 @@
         <v>6.98</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1187,7 +1187,7 @@
         <v>16.01</v>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1203,7 +1203,7 @@
         <v>4.87</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1219,7 +1219,7 @@
         <v>28.93</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1235,7 +1235,7 @@
         <v>33.57</v>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1251,7 +1251,7 @@
         <v>45.919998</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1267,7 +1267,7 @@
         <v>48.290001</v>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1283,7 +1283,7 @@
         <v>33.599998</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1299,7 +1299,7 @@
         <v>33.540001</v>
       </c>
       <c r="D34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1315,7 +1315,7 @@
         <v>17.790001</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1331,7 +1331,7 @@
         <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1347,7 @@
         <v>-37.43</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1363,7 +1363,7 @@
         <v>-48.060001</v>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1379,7 +1379,7 @@
         <v>-50.740002</v>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1395,7 +1395,7 @@
         <v>-48.110001</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1411,7 +1411,7 @@
         <v>-48.66</v>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
         <v>-49.939999</v>
       </c>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1443,7 +1443,7 @@
         <v>-47.259998</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1459,7 +1459,7 @@
         <v>-49.639999</v>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1475,7 +1475,7 @@
         <v>-53.669998</v>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1491,7 +1491,7 @@
         <v>-56.009998</v>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1507,7 +1507,7 @@
         <v>-56.950001</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1523,7 +1523,7 @@
         <v>-55.389999</v>
       </c>
       <c r="D48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1539,7 +1539,7 @@
         <v>-54.900002</v>
       </c>
       <c r="D49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1555,7 +1555,7 @@
         <v>-53.860001</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1571,7 +1571,7 @@
         <v>-52.709999</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1587,7 +1587,7 @@
         <v>-52.09</v>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1603,7 +1603,7 @@
         <v>-50.759998</v>
       </c>
       <c r="D53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>Electrolyzer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4055,42 +4055,42 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>connection__node__node</t>
+          <t>unit__node__node</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fix_ratio_out_in_connection_flow</t>
+          <t>fix_ratio_out_out_unit_flow</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4106,17 +4106,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4141,17 +4141,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4176,17 +4176,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4211,25 +4211,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>District_Heating</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>fix_ratio_out_in_connection_flow</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>connection__node__node</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pipeline_storage_hydrogen</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>fix_ratio_out_in_connection_flow</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>connection__node__node</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>E-Methanol_Kasso</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>fix_ratio_out_in_connection_flow</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -520,7 +520,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2257,20 +2257,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2280,18 +2278,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2307,14 +2313,12 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2324,26 +2328,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2353,18 +2349,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2374,7 +2372,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -2385,7 +2383,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2398,15 +2396,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>100000</v>
       </c>
@@ -2414,7 +2406,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2424,18 +2416,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2445,18 +2439,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2479,7 +2475,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2489,20 +2485,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2515,9 +2509,15 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="n">
         <v>100000</v>
       </c>
@@ -3272,7 +3272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3375,7 +3375,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3385,21 +3385,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>Electrolyzer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>vom_cost</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>CO2_Vaporizer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>Destilation_Tower</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3495,37 +3495,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>connection_capacity</t>
+          <t>unit_capacity</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3555,7 +3555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3645,7 +3645,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3675,7 +3675,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3705,7 +3705,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3765,30 +3765,60 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>connection__to_node</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>pipeline_District_Heating</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>District_Heating</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>connection_capacity</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
           <t>Category</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,6 +473,9 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -480,6 +488,7 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,6 +501,7 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -504,6 +514,7 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -516,11 +527,12 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -528,11 +540,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -540,11 +553,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -552,11 +566,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -564,6 +579,7 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -576,11 +592,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -588,11 +605,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -600,11 +618,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -612,11 +631,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -624,11 +644,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -636,11 +657,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -648,11 +670,12 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -660,6 +683,7 @@
           <t>node</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -672,6 +696,9 @@
           <t>connection</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -684,6 +711,7 @@
           <t>connection</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -696,6 +724,7 @@
           <t>connection</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -708,6 +737,7 @@
           <t>connection</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2199,7 +2229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,25 +2250,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>balance_type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>has_state</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>node_state_cap</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>frac_state_loss</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>node_slack_penalty</t>
         </is>
@@ -2247,7 +2282,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2255,20 +2290,23 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>balance_type_node</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2276,28 +2314,23 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2305,20 +2338,29 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2326,15 +2368,18 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>balance_type_node</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2347,22 +2392,23 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2370,20 +2416,21 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>balance_type_none</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2391,22 +2438,21 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>balance_type_none</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2414,22 +2460,21 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2437,22 +2482,21 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>balance_type_none</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2460,22 +2504,29 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100000</v>
+      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2483,20 +2534,21 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>balance_type_none</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2504,21 +2556,16 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>100000</v>
       </c>
     </row>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -532,7 +532,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -675,7 +675,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,30 +2250,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fom_cost</t>
+          <t>balance_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>balance_type</t>
+          <t>has_state</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>has_state</t>
+          <t>node_state_cap</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>node_state_cap</t>
+          <t>frac_state_loss</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>frac_state_loss</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>node_slack_penalty</t>
         </is>
@@ -2282,7 +2277,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2290,23 +2285,22 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
+      <c r="G2" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2314,16 +2308,15 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -2338,29 +2331,30 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>balance_type_node</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100000</v>
       </c>
       <c r="F4" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2368,23 +2362,22 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
+      <c r="G5" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2392,23 +2385,20 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>100000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2416,21 +2406,20 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>balance_type_none</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2438,21 +2427,22 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2460,21 +2450,22 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>balance_type_node</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2482,21 +2473,20 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>balance_type_none</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2504,29 +2494,20 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100000</v>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2534,21 +2515,30 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>balance_type_node</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2556,18 +2546,15 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>100000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -532,7 +532,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -675,7 +675,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2287,20 +2287,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2323,7 +2321,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2333,28 +2331,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2370,14 +2358,12 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2393,12 +2379,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2419,7 +2407,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2432,9 +2420,17 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="n">
         <v>100000</v>
       </c>
@@ -2442,7 +2438,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2452,20 +2448,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2475,18 +2469,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2496,18 +2492,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2520,17 +2526,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>100000</v>
       </c>
@@ -2538,7 +2536,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2548,13 +2546,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3306,7 +3306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3854,6 +3854,36 @@
       </c>
       <c r="F18" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>unit__to_node</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ordered_unit_flow_op</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -1647,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,6 +1772,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>total_costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>unit_flow_op</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,6 +2100,33 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>total_costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>report__output</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>unit_flow_op</t>
         </is>
       </c>
     </row>
@@ -4516,15 +4555,19 @@
         <v>1.428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -532,7 +532,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -675,7 +675,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2326,18 +2326,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2360,7 +2370,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2370,18 +2380,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2397,12 +2409,14 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2418,14 +2432,12 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2435,18 +2447,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2456,23 +2470,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2498,7 +2502,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2508,15 +2512,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2552,7 +2554,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2575,7 +2577,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2585,15 +2587,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3898,7 +3898,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>unit__to_node</t>
+          <t>unit__from_node</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
     </row>
@@ -4541,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -4552,10 +4552,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1.428571428571429</v>
+        <v>0.7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -12,14 +12,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boolean_relations" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,7 +533,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -545,7 +546,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +559,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -571,7 +572,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -597,7 +598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -610,7 +611,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -623,7 +624,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -636,7 +637,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -649,7 +650,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -662,7 +663,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -675,7 +676,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -745,6 +746,851 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DateTime DK1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>E-Methanol_Kasso</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Solar_Plant_Kasso</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>unit_availability_factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-01-01T00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-01-01T01:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-01-01T02:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-01-01T03:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-01-01T04:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-01-01T05:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-01-01T06:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-01-01T07:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019-01-01T08:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-01-01T09:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-01-01T10:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-01-01T11:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019-01-01T12:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019-01-01T13:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019-01-01T14:00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2019-01-01T15:00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019-01-01T16:00:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2019-01-01T17:00:00</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2019-01-01T18:00:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2019-01-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2019-01-01T20:00:00</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2019-01-01T21:00:00</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2019-01-01T22:00:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019-01-01T23:00:00</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2019-01-02T00:00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2019-01-02T01:00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019-01-02T02:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019-01-02T03:00:00</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-01-02T04:00:00</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-01-02T05:00:00</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-01-02T06:00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-01-02T07:00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2019-01-02T08:00:00</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2019-01-02T09:00:00</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019-01-02T10:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019-01-02T11:00:00</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2019-01-02T12:00:00</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2019-01-02T13:00:00</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019-01-02T14:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-01-02T15:00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-01-02T16:00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-01-02T17:00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-01-02T18:00:00</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-01-02T19:00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-01-02T20:00:00</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-01-02T21:00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019-01-02T22:00:00</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019-01-02T23:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +2487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2316,7 +3162,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2326,28 +3172,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2357,20 +3193,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2393,7 +3227,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2403,15 +3237,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2437,7 +3269,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2447,20 +3279,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2470,18 +3300,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2491,18 +3331,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2512,18 +3362,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2536,17 +3388,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>100000</v>
       </c>
@@ -2554,7 +3398,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2577,7 +3421,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2587,13 +3431,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3345,7 +4191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3895,42 +4741,93 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>unit__from_node</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Electrolyzer</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Power_Kasso</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ordered_unit_flow_op</t>
-        </is>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>relationship_class_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>object_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>object_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>parameter_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ordered_unit_flow_op</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4441,7 +5338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4574,7 +5471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4643,849 +5540,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime DK1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>E-Methanol_Kasso</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Solar_Plant_Kasso</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>node</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>node</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>demand</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>demand</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>unit_availability_factor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-01-01T00:00:00</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019-01-01T01:00:00</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019-01-01T02:00:00</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019-01-01T03:00:00</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-01-01T04:00:00</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-01-01T05:00:00</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-01-01T06:00:00</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019-01-01T07:00:00</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019-01-01T08:00:00</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019-01-01T09:00:00</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-01-01T10:00:00</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019-01-01T11:00:00</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.168</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019-01-01T12:00:00</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019-01-01T13:00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.145</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2019-01-01T14:00:00</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019-01-01T15:00:00</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2019-01-01T16:00:00</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2019-01-01T17:00:00</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2019-01-01T18:00:00</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>25</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2019-01-01T19:00:00</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>25</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2019-01-01T20:00:00</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>25</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2019-01-01T21:00:00</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2019-01-01T22:00:00</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2019-01-01T23:00:00</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2019-01-02T00:00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2019-01-02T01:00:00</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2019-01-02T02:00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2019-01-02T03:00:00</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>25</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2019-01-02T04:00:00</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2019-01-02T05:00:00</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>25</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019-01-02T06:00:00</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2019-01-02T07:00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>25</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2019-01-02T08:00:00</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2019-01-02T09:00:00</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>25</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2019-01-02T10:00:00</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>25</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.339</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2019-01-02T11:00:00</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>25</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.471</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2019-01-02T12:00:00</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2019-01-02T13:00:00</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>25</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.454</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2019-01-02T14:00:00</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>25</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.299</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2019-01-02T15:00:00</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2019-01-02T16:00:00</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>25</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2019-01-02T17:00:00</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2019-01-02T18:00:00</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>25</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2019-01-02T19:00:00</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>25</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2019-01-02T20:00:00</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>25</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2019-01-02T21:00:00</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>25</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2019-01-02T22:00:00</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>25</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2019-01-02T23:00:00</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>25</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boolean_relations" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition_parameters" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boolean_relations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +458,6 @@
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fom_cost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,9 +470,6 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,7 +482,6 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,7 +494,6 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -515,7 +506,6 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -528,12 +518,11 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,12 +530,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,12 +542,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,12 +554,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -580,12 +566,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -593,7 +578,6 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -606,7 +590,6 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -619,12 +602,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -632,12 +614,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -645,12 +626,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -658,12 +638,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -671,12 +650,11 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -684,7 +662,6 @@
           <t>node</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -697,9 +674,6 @@
           <t>connection</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -712,7 +686,6 @@
           <t>connection</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -725,7 +698,6 @@
           <t>connection</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -738,7 +710,6 @@
           <t>connection</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -746,6 +717,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fix_node_state</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fix_node_state</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2018-12-31T23:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-01-01T00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2487,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2638,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2981,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3114,6 +3156,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Object_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Solar_Plant_Kasso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>min_down_time</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>online_variable_type</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unit_online_variable_type_integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>power_line_Wholesale_Kasso</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fom_cost</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3327,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3183,7 +3348,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3193,18 +3358,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3227,7 +3394,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3237,7 +3404,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -3248,7 +3415,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3264,7 +3431,9 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3321,7 +3490,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3334,17 +3503,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>100000</v>
       </c>
@@ -3352,7 +3513,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3375,7 +3536,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3385,20 +3546,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3411,9 +3570,17 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" t="n">
         <v>100000</v>
       </c>
@@ -3421,7 +3588,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3431,22 +3598,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3550,7 +3715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4185,7 +4350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4746,7 +4911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4818,8 +4983,10 @@
           <t>ordered_unit_flow_op</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5338,7 +5505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5469,75 +5636,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>fix_node_state</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fix_node_state</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2018-12-31T23:00:00</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-01-01T00:00:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -522,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3219,11 +3219,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>min_down_time</t>
+          <t>unit_on_cost</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>1e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3239,32 +3239,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>online_variable_type</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>unit_online_variable_type_integer</t>
-        </is>
+          <t>min_down_time</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>online_variable_type</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>unit_online_variable_type_integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>fom_cost</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3327,7 +3347,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3348,7 +3368,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3361,9 +3381,17 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="n">
         <v>100000</v>
       </c>
@@ -3371,7 +3399,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3394,7 +3422,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3410,12 +3438,14 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3425,20 +3455,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3448,18 +3476,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3472,17 +3510,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>100000</v>
       </c>
@@ -3490,7 +3520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3500,20 +3530,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3536,7 +3564,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3546,7 +3574,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -3557,7 +3585,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3567,28 +3595,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3598,13 +3616,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>100000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4356,7 +4376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4594,76 +4614,76 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>unit_capacity</t>
+          <t>ramp_up_limit</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>connection_capacity</t>
+          <t>ramp_down_limit</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>unit__to_node</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>connection</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Methanol_Reactor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>connection_capacity</t>
+          <t>unit_capacity</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -4684,7 +4704,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4714,7 +4734,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4729,7 +4749,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>connection__to_node</t>
+          <t>connection__from_node</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4739,12 +4759,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4759,7 +4779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4769,12 +4789,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4799,12 +4819,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4829,12 +4849,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4849,7 +4869,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>connection__from_node</t>
+          <t>connection__to_node</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4859,12 +4879,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4879,30 +4899,90 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pipeline_storage_e-methanol</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>E-Methanol_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>connection__from_node</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pipeline_District_Heating</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Waste_Heat</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>connection_capacity</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>connection__to_node</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>pipeline_District_Heating</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>District_Heating</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>connection_capacity</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F20" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/spine_projects/01_input_data/02_input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -9,19 +9,20 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition_parameters" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boolean_relations" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition_parameters_duration" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nodes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connections" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node_definition" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__to_from_node" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Boolean_relations" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object__node_node" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable_Eff" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_series_storage" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy_prices" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_components" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model_relations" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,7 +523,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -534,7 +535,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -546,7 +547,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -558,7 +559,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -570,7 +571,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -582,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -594,7 +595,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -606,7 +607,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -618,7 +619,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -630,7 +631,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -642,7 +643,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -654,7 +655,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -717,6 +718,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>relationship_class:</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unit__node__node</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>unit__from_node</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electrolyzer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Power_Kasso</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrogen_Kasso</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>parameter name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>unit_incremental_heat_rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>operating_points</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,7 +921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1632,7 +1766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2529,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2680,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3023,7 +3157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3156,7 +3290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3239,52 +3373,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>min_down_time</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>48</v>
+          <t>online_variable_type</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unit_online_variable_type_integer</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>online_variable_type</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>unit_online_variable_type_integer</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>power_line_Wholesale_Kasso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>fom_cost</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3294,6 +3408,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Object_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Methanol_Reactor</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>min_down_time</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48h</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3347,7 +3524,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3357,18 +3534,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3381,25 +3560,15 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100000</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3409,20 +3578,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3432,20 +3599,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3455,18 +3620,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3476,28 +3643,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100000</v>
-      </c>
+          <t>balance_type_none</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3507,20 +3664,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3530,18 +3685,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>Hydrogen_Kasso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3564,7 +3721,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3577,15 +3734,25 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3595,18 +3762,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>balance_type_node</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_Kasso</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3631,7 +3808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3735,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4370,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4991,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5074,7 +5251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5583,137 +5760,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>relationship_class:</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>unit__node__node</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>unit__from_node</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Electrolyzer</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Electrolyzer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>node</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Power_Kasso</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Power_Kasso</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>node</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hydrogen_Kasso</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>parameter name</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>unit_incremental_heat_rate</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>operating_points</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>